--- a/2021_merged_with_zh_clean.xlsx
+++ b/2021_merged_with_zh_clean.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S189"/>
+  <dimension ref="A1:W189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,10 +445,30 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Matek helyes</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Kognitív pont</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Matek eredmény</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Kognitív eredmény</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>FelviPont</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ZH0</t>
         </is>
@@ -523,9 +543,21 @@
         <v>73.3</v>
       </c>
       <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <v>42.93</v>
+      </c>
+      <c r="T2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U2">
+        <v>0.7037704918032787</v>
+      </c>
+      <c r="V2">
         <v>473</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>56</v>
       </c>
     </row>
@@ -598,9 +630,21 @@
         <v>70.8</v>
       </c>
       <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>39.08</v>
+      </c>
+      <c r="T3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U3">
+        <v>0.640655737704918</v>
+      </c>
+      <c r="V3">
         <v>485</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>60</v>
       </c>
     </row>
@@ -673,9 +717,21 @@
         <v>83.59999999999999</v>
       </c>
       <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>40.33</v>
+      </c>
+      <c r="T4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U4">
+        <v>0.6611475409836065</v>
+      </c>
+      <c r="V4">
         <v>419</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>47</v>
       </c>
     </row>
@@ -748,9 +804,21 @@
         <v>65.09999999999999</v>
       </c>
       <c r="R5">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>40.19</v>
+      </c>
+      <c r="T5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U5">
+        <v>0.6588524590163934</v>
+      </c>
+      <c r="V5">
         <v>414</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>32</v>
       </c>
     </row>
@@ -823,9 +891,21 @@
         <v>86.90000000000001</v>
       </c>
       <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>41.83</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.6857377049180328</v>
+      </c>
+      <c r="V6">
         <v>418</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>42</v>
       </c>
     </row>
@@ -898,9 +978,21 @@
         <v>95.5</v>
       </c>
       <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>37</v>
+      </c>
+      <c r="T7">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U7">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="V7">
         <v>430</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>45</v>
       </c>
     </row>
@@ -973,9 +1065,21 @@
         <v>64.3</v>
       </c>
       <c r="R8">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>33.83</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.5545901639344262</v>
+      </c>
+      <c r="V8">
         <v>403</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>50</v>
       </c>
     </row>
@@ -1048,9 +1152,21 @@
         <v>63.6</v>
       </c>
       <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>34.66</v>
+      </c>
+      <c r="T9">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U9">
+        <v>0.5681967213114754</v>
+      </c>
+      <c r="V9">
         <v>465</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>46</v>
       </c>
     </row>
@@ -1123,9 +1239,21 @@
         <v>62.3</v>
       </c>
       <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>35</v>
+      </c>
+      <c r="T10">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U10">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="V10">
         <v>425</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>22</v>
       </c>
     </row>
@@ -1198,9 +1326,21 @@
         <v>58.9</v>
       </c>
       <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>37.67</v>
+      </c>
+      <c r="T11">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U11">
+        <v>0.6175409836065574</v>
+      </c>
+      <c r="V11">
         <v>427</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>10</v>
       </c>
     </row>
@@ -1273,9 +1413,21 @@
         <v>68.2</v>
       </c>
       <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>32.5</v>
+      </c>
+      <c r="T12">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U12">
+        <v>0.5327868852459017</v>
+      </c>
+      <c r="V12">
         <v>381</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>31</v>
       </c>
     </row>
@@ -1348,9 +1500,21 @@
         <v>73.09999999999999</v>
       </c>
       <c r="R13">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>36</v>
+      </c>
+      <c r="T13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U13">
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="V13">
         <v>468</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>55</v>
       </c>
     </row>
@@ -1423,9 +1587,21 @@
         <v>104.9</v>
       </c>
       <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>38.91</v>
+      </c>
+      <c r="T14">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U14">
+        <v>0.6378688524590164</v>
+      </c>
+      <c r="V14">
         <v>376</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>35</v>
       </c>
     </row>
@@ -1498,9 +1674,21 @@
         <v>76.09999999999999</v>
       </c>
       <c r="R15">
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <v>35.68</v>
+      </c>
+      <c r="T15">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U15">
+        <v>0.5849180327868853</v>
+      </c>
+      <c r="V15">
         <v>379</v>
       </c>
-      <c r="S15">
+      <c r="W15">
         <v>40</v>
       </c>
     </row>
@@ -1573,9 +1761,21 @@
         <v>75.40000000000001</v>
       </c>
       <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>36.93</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>0.6054098360655738</v>
+      </c>
+      <c r="V16">
         <v>414</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>45</v>
       </c>
     </row>
@@ -1648,9 +1848,21 @@
         <v>78.3</v>
       </c>
       <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>35.41</v>
+      </c>
+      <c r="T17">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U17">
+        <v>0.5804918032786884</v>
+      </c>
+      <c r="V17">
         <v>380</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>40</v>
       </c>
     </row>
@@ -1723,9 +1935,21 @@
         <v>60.5</v>
       </c>
       <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>37.33</v>
+      </c>
+      <c r="T18">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U18">
+        <v>0.6119672131147541</v>
+      </c>
+      <c r="V18">
         <v>429</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>36</v>
       </c>
     </row>
@@ -1798,9 +2022,21 @@
         <v>75.09999999999999</v>
       </c>
       <c r="R19">
+        <v>14</v>
+      </c>
+      <c r="S19">
+        <v>29.18</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0.4783606557377049</v>
+      </c>
+      <c r="V19">
         <v>479</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>55</v>
       </c>
     </row>
@@ -1873,9 +2109,21 @@
         <v>57.7</v>
       </c>
       <c r="R20">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>32.02</v>
+      </c>
+      <c r="T20">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U20">
+        <v>0.5249180327868853</v>
+      </c>
+      <c r="V20">
         <v>475</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>40</v>
       </c>
     </row>
@@ -1948,9 +2196,21 @@
         <v>89.90000000000001</v>
       </c>
       <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>32.77</v>
+      </c>
+      <c r="T21">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U21">
+        <v>0.5372131147540984</v>
+      </c>
+      <c r="V21">
         <v>403</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>50</v>
       </c>
     </row>
@@ -2023,9 +2283,21 @@
         <v>57.8</v>
       </c>
       <c r="R22">
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <v>30.5</v>
+      </c>
+      <c r="T22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
         <v>447</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>50</v>
       </c>
     </row>
@@ -2098,9 +2370,21 @@
         <v>52.4</v>
       </c>
       <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23">
+        <v>29.94</v>
+      </c>
+      <c r="T23">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U23">
+        <v>0.4908196721311475</v>
+      </c>
+      <c r="V23">
         <v>392</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>33</v>
       </c>
     </row>
@@ -2173,9 +2457,21 @@
         <v>58.7</v>
       </c>
       <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>31.92</v>
+      </c>
+      <c r="T24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U24">
+        <v>0.5232786885245901</v>
+      </c>
+      <c r="V24">
         <v>431</v>
       </c>
-      <c r="S24">
+      <c r="W24">
         <v>16</v>
       </c>
     </row>
@@ -2248,9 +2544,21 @@
         <v>59.6</v>
       </c>
       <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>31.33</v>
+      </c>
+      <c r="T25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U25">
+        <v>0.5136065573770492</v>
+      </c>
+      <c r="V25">
         <v>473</v>
       </c>
-      <c r="S25">
+      <c r="W25">
         <v>38</v>
       </c>
     </row>
@@ -2323,9 +2631,21 @@
         <v>68.40000000000001</v>
       </c>
       <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26">
+        <v>32.25</v>
+      </c>
+      <c r="T26">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U26">
+        <v>0.5286885245901639</v>
+      </c>
+      <c r="V26">
         <v>487</v>
       </c>
-      <c r="S26">
+      <c r="W26">
         <v>51</v>
       </c>
     </row>
@@ -2398,9 +2718,21 @@
         <v>53.6</v>
       </c>
       <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>31.09</v>
+      </c>
+      <c r="T27">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U27">
+        <v>0.5096721311475411</v>
+      </c>
+      <c r="V27">
         <v>384</v>
       </c>
-      <c r="S27">
+      <c r="W27">
         <v>36</v>
       </c>
     </row>
@@ -2473,9 +2805,21 @@
         <v>52.2</v>
       </c>
       <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>31.94</v>
+      </c>
+      <c r="T28">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U28">
+        <v>0.5236065573770492</v>
+      </c>
+      <c r="V28">
         <v>361</v>
       </c>
-      <c r="S28">
+      <c r="W28">
         <v>32</v>
       </c>
     </row>
@@ -2548,9 +2892,21 @@
         <v>79.7</v>
       </c>
       <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>31.6</v>
+      </c>
+      <c r="T29">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U29">
+        <v>0.5180327868852459</v>
+      </c>
+      <c r="V29">
         <v>458</v>
       </c>
-      <c r="S29">
+      <c r="W29">
         <v>50</v>
       </c>
     </row>
@@ -2623,9 +2979,21 @@
         <v>50.4</v>
       </c>
       <c r="R30">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>31.58</v>
+      </c>
+      <c r="T30">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U30">
+        <v>0.5177049180327868</v>
+      </c>
+      <c r="V30">
         <v>428</v>
       </c>
-      <c r="S30">
+      <c r="W30">
         <v>32</v>
       </c>
     </row>
@@ -2698,9 +3066,21 @@
         <v>51.4</v>
       </c>
       <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>32.41</v>
+      </c>
+      <c r="T31">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U31">
+        <v>0.531311475409836</v>
+      </c>
+      <c r="V31">
         <v>404</v>
       </c>
-      <c r="S31">
+      <c r="W31">
         <v>50</v>
       </c>
     </row>
@@ -2773,9 +3153,21 @@
         <v>82.90000000000001</v>
       </c>
       <c r="R32">
+        <v>11</v>
+      </c>
+      <c r="S32">
+        <v>29.35</v>
+      </c>
+      <c r="T32">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U32">
+        <v>0.4811475409836066</v>
+      </c>
+      <c r="V32">
         <v>455</v>
       </c>
-      <c r="S32">
+      <c r="W32">
         <v>60</v>
       </c>
     </row>
@@ -2848,9 +3240,21 @@
         <v>61.2</v>
       </c>
       <c r="R33">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>29.25</v>
+      </c>
+      <c r="T33">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U33">
+        <v>0.4795081967213115</v>
+      </c>
+      <c r="V33">
         <v>396</v>
       </c>
-      <c r="S33">
+      <c r="W33">
         <v>10</v>
       </c>
     </row>
@@ -2923,9 +3327,21 @@
         <v>48</v>
       </c>
       <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>36.16</v>
+      </c>
+      <c r="T34">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U34">
+        <v>0.5927868852459016</v>
+      </c>
+      <c r="V34">
         <v>453</v>
       </c>
-      <c r="S34">
+      <c r="W34">
         <v>38</v>
       </c>
     </row>
@@ -2998,9 +3414,21 @@
         <v>60.9</v>
       </c>
       <c r="R35">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>29.08</v>
+      </c>
+      <c r="T35">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U35">
+        <v>0.4767213114754098</v>
+      </c>
+      <c r="V35">
         <v>342</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>45</v>
       </c>
     </row>
@@ -3073,9 +3501,21 @@
         <v>67</v>
       </c>
       <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>32.58</v>
+      </c>
+      <c r="T36">
+        <v>0.5</v>
+      </c>
+      <c r="U36">
+        <v>0.5340983606557377</v>
+      </c>
+      <c r="V36">
         <v>457</v>
       </c>
-      <c r="S36">
+      <c r="W36">
         <v>40</v>
       </c>
     </row>
@@ -3148,9 +3588,21 @@
         <v>59.9</v>
       </c>
       <c r="R37">
+        <v>11</v>
+      </c>
+      <c r="S37">
+        <v>28.58</v>
+      </c>
+      <c r="T37">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U37">
+        <v>0.4685245901639344</v>
+      </c>
+      <c r="V37">
         <v>410</v>
       </c>
-      <c r="S37">
+      <c r="W37">
         <v>60</v>
       </c>
     </row>
@@ -3223,9 +3675,21 @@
         <v>54.7</v>
       </c>
       <c r="R38">
+        <v>6</v>
+      </c>
+      <c r="S38">
+        <v>33.43</v>
+      </c>
+      <c r="T38">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U38">
+        <v>0.5480327868852459</v>
+      </c>
+      <c r="V38">
         <v>386</v>
       </c>
-      <c r="S38">
+      <c r="W38">
         <v>8</v>
       </c>
     </row>
@@ -3298,9 +3762,21 @@
         <v>68.59999999999999</v>
       </c>
       <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>34.08</v>
+      </c>
+      <c r="T39">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U39">
+        <v>0.5586885245901639</v>
+      </c>
+      <c r="V39">
         <v>351</v>
       </c>
-      <c r="S39">
+      <c r="W39">
         <v>4</v>
       </c>
     </row>
@@ -3373,9 +3849,21 @@
         <v>63.6</v>
       </c>
       <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>32.83</v>
+      </c>
+      <c r="T40">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U40">
+        <v>0.5381967213114753</v>
+      </c>
+      <c r="V40">
         <v>370</v>
       </c>
-      <c r="S40">
+      <c r="W40">
         <v>26</v>
       </c>
     </row>
@@ -3448,9 +3936,21 @@
         <v>54</v>
       </c>
       <c r="R41">
+        <v>9</v>
+      </c>
+      <c r="S41">
+        <v>29.75</v>
+      </c>
+      <c r="T41">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U41">
+        <v>0.4877049180327869</v>
+      </c>
+      <c r="V41">
         <v>440</v>
       </c>
-      <c r="S41">
+      <c r="W41">
         <v>40</v>
       </c>
     </row>
@@ -3523,9 +4023,21 @@
         <v>49.2</v>
       </c>
       <c r="R42">
+        <v>9</v>
+      </c>
+      <c r="S42">
+        <v>29.52</v>
+      </c>
+      <c r="T42">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U42">
+        <v>0.4839344262295083</v>
+      </c>
+      <c r="V42">
         <v>447</v>
       </c>
-      <c r="S42">
+      <c r="W42">
         <v>36</v>
       </c>
     </row>
@@ -3598,9 +4110,21 @@
         <v>51.5</v>
       </c>
       <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>28.27</v>
+      </c>
+      <c r="T43">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U43">
+        <v>0.4634426229508197</v>
+      </c>
+      <c r="V43">
         <v>415</v>
       </c>
-      <c r="S43">
+      <c r="W43">
         <v>14</v>
       </c>
     </row>
@@ -3673,9 +4197,21 @@
         <v>52.2</v>
       </c>
       <c r="R44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>31.25</v>
+      </c>
+      <c r="T44">
+        <v>0.5</v>
+      </c>
+      <c r="U44">
+        <v>0.5122950819672131</v>
+      </c>
+      <c r="V44">
         <v>388</v>
       </c>
-      <c r="S44">
+      <c r="W44">
         <v>21</v>
       </c>
     </row>
@@ -3748,9 +4284,21 @@
         <v>56</v>
       </c>
       <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>31.17</v>
+      </c>
+      <c r="T45">
+        <v>0.5</v>
+      </c>
+      <c r="U45">
+        <v>0.5109836065573771</v>
+      </c>
+      <c r="V45">
         <v>343</v>
       </c>
-      <c r="S45">
+      <c r="W45">
         <v>35</v>
       </c>
     </row>
@@ -3823,9 +4371,21 @@
         <v>64.5</v>
       </c>
       <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>31</v>
+      </c>
+      <c r="T46">
+        <v>0.5</v>
+      </c>
+      <c r="U46">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="V46">
         <v>450</v>
       </c>
-      <c r="S46">
+      <c r="W46">
         <v>15</v>
       </c>
     </row>
@@ -3898,9 +4458,21 @@
         <v>64.90000000000001</v>
       </c>
       <c r="R47">
+        <v>7</v>
+      </c>
+      <c r="S47">
+        <v>31</v>
+      </c>
+      <c r="T47">
+        <v>0.5</v>
+      </c>
+      <c r="U47">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="V47">
         <v>445</v>
       </c>
-      <c r="S47">
+      <c r="W47">
         <v>40</v>
       </c>
     </row>
@@ -3973,9 +4545,21 @@
         <v>77.5</v>
       </c>
       <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>31.91</v>
+      </c>
+      <c r="T48">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U48">
+        <v>0.5231147540983606</v>
+      </c>
+      <c r="V48">
         <v>379</v>
       </c>
-      <c r="S48">
+      <c r="W48">
         <v>19</v>
       </c>
     </row>
@@ -4048,9 +4632,21 @@
         <v>50.3</v>
       </c>
       <c r="R49">
+        <v>11</v>
+      </c>
+      <c r="S49">
+        <v>26.5</v>
+      </c>
+      <c r="T49">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U49">
+        <v>0.4344262295081967</v>
+      </c>
+      <c r="V49">
         <v>471</v>
       </c>
-      <c r="S49">
+      <c r="W49">
         <v>50</v>
       </c>
     </row>
@@ -4123,9 +4719,21 @@
         <v>49</v>
       </c>
       <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>26.91</v>
+      </c>
+      <c r="T50">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U50">
+        <v>0.4411475409836065</v>
+      </c>
+      <c r="V50">
         <v>453</v>
       </c>
-      <c r="S50">
+      <c r="W50">
         <v>41</v>
       </c>
     </row>
@@ -4198,9 +4806,21 @@
         <v>49.7</v>
       </c>
       <c r="R51">
+        <v>12</v>
+      </c>
+      <c r="S51">
+        <v>24.08</v>
+      </c>
+      <c r="T51">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U51">
+        <v>0.3947540983606557</v>
+      </c>
+      <c r="V51">
         <v>423</v>
       </c>
-      <c r="S51">
+      <c r="W51">
         <v>50</v>
       </c>
     </row>
@@ -4273,9 +4893,21 @@
         <v>43.3</v>
       </c>
       <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>30</v>
+      </c>
+      <c r="T52">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U52">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="V52">
         <v>387</v>
       </c>
-      <c r="S52">
+      <c r="W52">
         <v>9</v>
       </c>
     </row>
@@ -4348,9 +4980,21 @@
         <v>58.1</v>
       </c>
       <c r="R53">
+        <v>5</v>
+      </c>
+      <c r="S53">
+        <v>30.66</v>
+      </c>
+      <c r="T53">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U53">
+        <v>0.5026229508196721</v>
+      </c>
+      <c r="V53">
         <v>380</v>
       </c>
-      <c r="S53">
+      <c r="W53">
         <v>20</v>
       </c>
     </row>
@@ -4423,9 +5067,21 @@
         <v>45.2</v>
       </c>
       <c r="R54">
+        <v>11</v>
+      </c>
+      <c r="S54">
+        <v>24.41</v>
+      </c>
+      <c r="T54">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U54">
+        <v>0.4001639344262294</v>
+      </c>
+      <c r="V54">
         <v>459</v>
       </c>
-      <c r="S54">
+      <c r="W54">
         <v>55</v>
       </c>
     </row>
@@ -4498,9 +5154,21 @@
         <v>66.40000000000001</v>
       </c>
       <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>29.35</v>
+      </c>
+      <c r="T55">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U55">
+        <v>0.4811475409836066</v>
+      </c>
+      <c r="V55">
         <v>398</v>
       </c>
-      <c r="S55">
+      <c r="W55">
         <v>17</v>
       </c>
     </row>
@@ -4573,9 +5241,21 @@
         <v>47.2</v>
       </c>
       <c r="R56">
+        <v>8</v>
+      </c>
+      <c r="S56">
+        <v>27.17</v>
+      </c>
+      <c r="T56">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U56">
+        <v>0.4454098360655738</v>
+      </c>
+      <c r="V56">
         <v>457</v>
       </c>
-      <c r="S56">
+      <c r="W56">
         <v>45</v>
       </c>
     </row>
@@ -4648,9 +5328,21 @@
         <v>63.5</v>
       </c>
       <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>31.1</v>
+      </c>
+      <c r="T57">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U57">
+        <v>0.5098360655737705</v>
+      </c>
+      <c r="V57">
         <v>388</v>
       </c>
-      <c r="S57">
+      <c r="W57">
         <v>40</v>
       </c>
     </row>
@@ -4723,9 +5415,21 @@
         <v>44.1</v>
       </c>
       <c r="R58">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <v>24.83</v>
+      </c>
+      <c r="T58">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U58">
+        <v>0.4070491803278688</v>
+      </c>
+      <c r="V58">
         <v>461</v>
       </c>
-      <c r="S58">
+      <c r="W58">
         <v>32</v>
       </c>
     </row>
@@ -4798,9 +5502,21 @@
         <v>47.1</v>
       </c>
       <c r="R59">
+        <v>7</v>
+      </c>
+      <c r="S59">
+        <v>27.68</v>
+      </c>
+      <c r="T59">
+        <v>0.5</v>
+      </c>
+      <c r="U59">
+        <v>0.4537704918032787</v>
+      </c>
+      <c r="V59">
         <v>443</v>
       </c>
-      <c r="S59">
+      <c r="W59">
         <v>30</v>
       </c>
     </row>
@@ -4873,9 +5589,21 @@
         <v>45.3</v>
       </c>
       <c r="R60">
+        <v>7</v>
+      </c>
+      <c r="S60">
+        <v>27.6</v>
+      </c>
+      <c r="T60">
+        <v>0.5</v>
+      </c>
+      <c r="U60">
+        <v>0.4524590163934427</v>
+      </c>
+      <c r="V60">
         <v>432</v>
       </c>
-      <c r="S60">
+      <c r="W60">
         <v>46</v>
       </c>
     </row>
@@ -4948,9 +5676,21 @@
         <v>44.8</v>
       </c>
       <c r="R61">
+        <v>7</v>
+      </c>
+      <c r="S61">
+        <v>27.42</v>
+      </c>
+      <c r="T61">
+        <v>0.5</v>
+      </c>
+      <c r="U61">
+        <v>0.4495081967213115</v>
+      </c>
+      <c r="V61">
         <v>386</v>
       </c>
-      <c r="S61">
+      <c r="W61">
         <v>51</v>
       </c>
     </row>
@@ -5023,9 +5763,21 @@
         <v>45</v>
       </c>
       <c r="R62">
+        <v>8</v>
+      </c>
+      <c r="S62">
+        <v>26.18</v>
+      </c>
+      <c r="T62">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U62">
+        <v>0.4291803278688525</v>
+      </c>
+      <c r="V62">
         <v>417</v>
       </c>
-      <c r="S62">
+      <c r="W62">
         <v>55</v>
       </c>
     </row>
@@ -5098,9 +5850,21 @@
         <v>72.3</v>
       </c>
       <c r="R63">
+        <v>8</v>
+      </c>
+      <c r="S63">
+        <v>26.16</v>
+      </c>
+      <c r="T63">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U63">
+        <v>0.4288524590163934</v>
+      </c>
+      <c r="V63">
         <v>388</v>
       </c>
-      <c r="S63">
+      <c r="W63">
         <v>56</v>
       </c>
     </row>
@@ -5173,9 +5937,21 @@
         <v>81.2</v>
       </c>
       <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>28.01</v>
+      </c>
+      <c r="T64">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U64">
+        <v>0.4591803278688524</v>
+      </c>
+      <c r="V64">
         <v>350</v>
       </c>
-      <c r="S64">
+      <c r="W64">
         <v>37</v>
       </c>
     </row>
@@ -5248,9 +6024,21 @@
         <v>49.5</v>
       </c>
       <c r="R65">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>28</v>
+      </c>
+      <c r="T65">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U65">
+        <v>0.459016393442623</v>
+      </c>
+      <c r="V65">
         <v>387</v>
       </c>
-      <c r="S65">
+      <c r="W65">
         <v>22</v>
       </c>
     </row>
@@ -5323,9 +6111,21 @@
         <v>60.5</v>
       </c>
       <c r="R66">
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <v>23.58</v>
+      </c>
+      <c r="T66">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U66">
+        <v>0.3865573770491803</v>
+      </c>
+      <c r="V66">
         <v>404</v>
       </c>
-      <c r="S66">
+      <c r="W66">
         <v>45</v>
       </c>
     </row>
@@ -5398,9 +6198,21 @@
         <v>82.59999999999999</v>
       </c>
       <c r="R67">
+        <v>10</v>
+      </c>
+      <c r="S67">
+        <v>23.58</v>
+      </c>
+      <c r="T67">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U67">
+        <v>0.3865573770491803</v>
+      </c>
+      <c r="V67">
         <v>445</v>
       </c>
-      <c r="S67">
+      <c r="W67">
         <v>25</v>
       </c>
     </row>
@@ -5473,9 +6285,21 @@
         <v>41.8</v>
       </c>
       <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>27.41</v>
+      </c>
+      <c r="T68">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U68">
+        <v>0.4493442622950819</v>
+      </c>
+      <c r="V68">
         <v>460</v>
       </c>
-      <c r="S68">
+      <c r="W68">
         <v>43</v>
       </c>
     </row>
@@ -5548,9 +6372,21 @@
         <v>43.5</v>
       </c>
       <c r="R69">
+        <v>9</v>
+      </c>
+      <c r="S69">
+        <v>24.19</v>
+      </c>
+      <c r="T69">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U69">
+        <v>0.3965573770491803</v>
+      </c>
+      <c r="V69">
         <v>454</v>
       </c>
-      <c r="S69">
+      <c r="W69">
         <v>22</v>
       </c>
     </row>
@@ -5623,9 +6459,21 @@
         <v>41.2</v>
       </c>
       <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>30</v>
+      </c>
+      <c r="T70">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U70">
+        <v>0.4918032786885246</v>
+      </c>
+      <c r="V70">
         <v>417</v>
       </c>
-      <c r="S70">
+      <c r="W70">
         <v>23</v>
       </c>
     </row>
@@ -5698,9 +6546,21 @@
         <v>64.3</v>
       </c>
       <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>26.92</v>
+      </c>
+      <c r="T71">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U71">
+        <v>0.4413114754098361</v>
+      </c>
+      <c r="V71">
         <v>408</v>
       </c>
-      <c r="S71">
+      <c r="W71">
         <v>52</v>
       </c>
     </row>
@@ -5773,9 +6633,21 @@
         <v>70.8</v>
       </c>
       <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>27.59</v>
+      </c>
+      <c r="T72">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U72">
+        <v>0.4522950819672132</v>
+      </c>
+      <c r="V72">
         <v>356</v>
       </c>
-      <c r="S72">
+      <c r="W72">
         <v>28</v>
       </c>
     </row>
@@ -5848,9 +6720,21 @@
         <v>40.8</v>
       </c>
       <c r="R73">
+        <v>6</v>
+      </c>
+      <c r="S73">
+        <v>26.42</v>
+      </c>
+      <c r="T73">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U73">
+        <v>0.4331147540983607</v>
+      </c>
+      <c r="V73">
         <v>392</v>
       </c>
-      <c r="S73">
+      <c r="W73">
         <v>35</v>
       </c>
     </row>
@@ -5923,9 +6807,21 @@
         <v>88.09999999999999</v>
       </c>
       <c r="R74">
+        <v>7</v>
+      </c>
+      <c r="S74">
+        <v>25.35</v>
+      </c>
+      <c r="T74">
+        <v>0.5</v>
+      </c>
+      <c r="U74">
+        <v>0.4155737704918033</v>
+      </c>
+      <c r="V74">
         <v>444</v>
       </c>
-      <c r="S74">
+      <c r="W74">
         <v>40</v>
       </c>
     </row>
@@ -5998,9 +6894,21 @@
         <v>55.1</v>
       </c>
       <c r="R75">
+        <v>12</v>
+      </c>
+      <c r="S75">
+        <v>20.16</v>
+      </c>
+      <c r="T75">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U75">
+        <v>0.3304918032786885</v>
+      </c>
+      <c r="V75">
         <v>471</v>
       </c>
-      <c r="S75">
+      <c r="W75">
         <v>45</v>
       </c>
     </row>
@@ -6073,9 +6981,21 @@
         <v>41.8</v>
       </c>
       <c r="R76">
+        <v>9</v>
+      </c>
+      <c r="S76">
+        <v>23.1</v>
+      </c>
+      <c r="T76">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U76">
+        <v>0.3786885245901639</v>
+      </c>
+      <c r="V76">
         <v>427</v>
       </c>
-      <c r="S76">
+      <c r="W76">
         <v>41</v>
       </c>
     </row>
@@ -6148,9 +7068,21 @@
         <v>46.7</v>
       </c>
       <c r="R77">
+        <v>10</v>
+      </c>
+      <c r="S77">
+        <v>21.92</v>
+      </c>
+      <c r="T77">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U77">
+        <v>0.359344262295082</v>
+      </c>
+      <c r="V77">
         <v>457</v>
       </c>
-      <c r="S77">
+      <c r="W77">
         <v>35</v>
       </c>
     </row>
@@ -6223,9 +7155,21 @@
         <v>41.5</v>
       </c>
       <c r="R78">
+        <v>9</v>
+      </c>
+      <c r="S78">
+        <v>22.34</v>
+      </c>
+      <c r="T78">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U78">
+        <v>0.3662295081967213</v>
+      </c>
+      <c r="V78">
         <v>476</v>
       </c>
-      <c r="S78">
+      <c r="W78">
         <v>60</v>
       </c>
     </row>
@@ -6298,9 +7242,21 @@
         <v>52.2</v>
       </c>
       <c r="R79">
+        <v>11</v>
+      </c>
+      <c r="S79">
+        <v>20.27</v>
+      </c>
+      <c r="T79">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U79">
+        <v>0.3322950819672131</v>
+      </c>
+      <c r="V79">
         <v>384</v>
       </c>
-      <c r="S79">
+      <c r="W79">
         <v>45</v>
       </c>
     </row>
@@ -6373,9 +7329,21 @@
         <v>58.5</v>
       </c>
       <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>27.16</v>
+      </c>
+      <c r="T80">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U80">
+        <v>0.4452459016393442</v>
+      </c>
+      <c r="V80">
         <v>379</v>
       </c>
-      <c r="S80">
+      <c r="W80">
         <v>31</v>
       </c>
     </row>
@@ -6448,9 +7416,21 @@
         <v>53.9</v>
       </c>
       <c r="R81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>24.08</v>
+      </c>
+      <c r="T81">
+        <v>0.5</v>
+      </c>
+      <c r="U81">
+        <v>0.3947540983606557</v>
+      </c>
+      <c r="V81">
         <v>418</v>
       </c>
-      <c r="S81">
+      <c r="W81">
         <v>51</v>
       </c>
     </row>
@@ -6523,9 +7503,21 @@
         <v>60.8</v>
       </c>
       <c r="R82">
+        <v>7</v>
+      </c>
+      <c r="S82">
+        <v>24</v>
+      </c>
+      <c r="T82">
+        <v>0.5</v>
+      </c>
+      <c r="U82">
+        <v>0.3934426229508197</v>
+      </c>
+      <c r="V82">
         <v>363</v>
       </c>
-      <c r="S82">
+      <c r="W82">
         <v>15</v>
       </c>
     </row>
@@ -6598,9 +7590,21 @@
         <v>55.2</v>
       </c>
       <c r="R83">
+        <v>6</v>
+      </c>
+      <c r="S83">
+        <v>24.91</v>
+      </c>
+      <c r="T83">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U83">
+        <v>0.4083606557377049</v>
+      </c>
+      <c r="V83">
         <v>361</v>
       </c>
-      <c r="S83">
+      <c r="W83">
         <v>20</v>
       </c>
     </row>
@@ -6673,9 +7677,21 @@
         <v>38.6</v>
       </c>
       <c r="R84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>23.76</v>
+      </c>
+      <c r="T84">
+        <v>0.5</v>
+      </c>
+      <c r="U84">
+        <v>0.3895081967213115</v>
+      </c>
+      <c r="V84">
         <v>466</v>
       </c>
-      <c r="S84">
+      <c r="W84">
         <v>40</v>
       </c>
     </row>
@@ -6748,9 +7764,21 @@
         <v>42.3</v>
       </c>
       <c r="R85">
+        <v>8</v>
+      </c>
+      <c r="S85">
+        <v>22.42</v>
+      </c>
+      <c r="T85">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U85">
+        <v>0.3675409836065574</v>
+      </c>
+      <c r="V85">
         <v>436</v>
       </c>
-      <c r="S85">
+      <c r="W85">
         <v>40</v>
       </c>
     </row>
@@ -6823,9 +7851,21 @@
         <v>71.3</v>
       </c>
       <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>25.26</v>
+      </c>
+      <c r="T86">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U86">
+        <v>0.4140983606557377</v>
+      </c>
+      <c r="V86">
         <v>340</v>
       </c>
-      <c r="S86">
+      <c r="W86">
         <v>35</v>
       </c>
     </row>
@@ -6898,9 +7938,21 @@
         <v>68.2</v>
       </c>
       <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>25.2</v>
+      </c>
+      <c r="T87">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U87">
+        <v>0.4131147540983606</v>
+      </c>
+      <c r="V87">
         <v>407</v>
       </c>
-      <c r="S87">
+      <c r="W87">
         <v>40</v>
       </c>
     </row>
@@ -6973,9 +8025,21 @@
         <v>39.1</v>
       </c>
       <c r="R88">
+        <v>3</v>
+      </c>
+      <c r="S88">
+        <v>27.08</v>
+      </c>
+      <c r="T88">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U88">
+        <v>0.4439344262295082</v>
+      </c>
+      <c r="V88">
         <v>363</v>
       </c>
-      <c r="S88">
+      <c r="W88">
         <v>40</v>
       </c>
     </row>
@@ -7048,9 +8112,21 @@
         <v>106.3</v>
       </c>
       <c r="R89">
+        <v>10</v>
+      </c>
+      <c r="S89">
+        <v>20.03</v>
+      </c>
+      <c r="T89">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U89">
+        <v>0.328360655737705</v>
+      </c>
+      <c r="V89">
         <v>404</v>
       </c>
-      <c r="S89">
+      <c r="W89">
         <v>36</v>
       </c>
     </row>
@@ -7123,9 +8199,21 @@
         <v>42</v>
       </c>
       <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>25</v>
+      </c>
+      <c r="T90">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U90">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="V90">
         <v>418</v>
       </c>
-      <c r="S90">
+      <c r="W90">
         <v>32</v>
       </c>
     </row>
@@ -7198,9 +8286,21 @@
         <v>37.9</v>
       </c>
       <c r="R91">
+        <v>7</v>
+      </c>
+      <c r="S91">
+        <v>22.85</v>
+      </c>
+      <c r="T91">
+        <v>0.5</v>
+      </c>
+      <c r="U91">
+        <v>0.3745901639344262</v>
+      </c>
+      <c r="V91">
         <v>434</v>
       </c>
-      <c r="S91">
+      <c r="W91">
         <v>50</v>
       </c>
     </row>
@@ -7273,9 +8373,21 @@
         <v>56.8</v>
       </c>
       <c r="R92">
+        <v>9</v>
+      </c>
+      <c r="S92">
+        <v>20.75</v>
+      </c>
+      <c r="T92">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U92">
+        <v>0.3401639344262295</v>
+      </c>
+      <c r="V92">
         <v>436</v>
       </c>
-      <c r="S92">
+      <c r="W92">
         <v>45</v>
       </c>
     </row>
@@ -7348,9 +8460,21 @@
         <v>61.2</v>
       </c>
       <c r="R93">
+        <v>5</v>
+      </c>
+      <c r="S93">
+        <v>24.5</v>
+      </c>
+      <c r="T93">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U93">
+        <v>0.4016393442622951</v>
+      </c>
+      <c r="V93">
         <v>400</v>
       </c>
-      <c r="S93">
+      <c r="W93">
         <v>35</v>
       </c>
     </row>
@@ -7423,9 +8547,21 @@
         <v>40</v>
       </c>
       <c r="R94">
+        <v>6</v>
+      </c>
+      <c r="S94">
+        <v>23.43</v>
+      </c>
+      <c r="T94">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U94">
+        <v>0.3840983606557377</v>
+      </c>
+      <c r="V94">
         <v>370</v>
       </c>
-      <c r="S94">
+      <c r="W94">
         <v>33</v>
       </c>
     </row>
@@ -7498,9 +8634,21 @@
         <v>58.4</v>
       </c>
       <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95">
+        <v>24.35</v>
+      </c>
+      <c r="T95">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U95">
+        <v>0.3991803278688525</v>
+      </c>
+      <c r="V95">
         <v>365</v>
       </c>
-      <c r="S95">
+      <c r="W95">
         <v>43</v>
       </c>
     </row>
@@ -7573,9 +8721,21 @@
         <v>45.9</v>
       </c>
       <c r="R96">
+        <v>8</v>
+      </c>
+      <c r="S96">
+        <v>21.25</v>
+      </c>
+      <c r="T96">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U96">
+        <v>0.3483606557377049</v>
+      </c>
+      <c r="V96">
         <v>456</v>
       </c>
-      <c r="S96">
+      <c r="W96">
         <v>50</v>
       </c>
     </row>
@@ -7648,9 +8808,21 @@
         <v>48.5</v>
       </c>
       <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>26.08</v>
+      </c>
+      <c r="T97">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U97">
+        <v>0.4275409836065574</v>
+      </c>
+      <c r="V97">
         <v>362</v>
       </c>
-      <c r="S97">
+      <c r="W97">
         <v>15</v>
       </c>
     </row>
@@ -7723,9 +8895,21 @@
         <v>53.5</v>
       </c>
       <c r="R98">
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>23</v>
+      </c>
+      <c r="T98">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U98">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="V98">
         <v>460</v>
       </c>
-      <c r="S98">
+      <c r="W98">
         <v>24</v>
       </c>
     </row>
@@ -7798,9 +8982,21 @@
         <v>72.3</v>
       </c>
       <c r="R99">
+        <v>7</v>
+      </c>
+      <c r="S99">
+        <v>21.93</v>
+      </c>
+      <c r="T99">
+        <v>0.5</v>
+      </c>
+      <c r="U99">
+        <v>0.3595081967213115</v>
+      </c>
+      <c r="V99">
         <v>370</v>
       </c>
-      <c r="S99">
+      <c r="W99">
         <v>20</v>
       </c>
     </row>
@@ -7873,9 +9069,21 @@
         <v>64.59999999999999</v>
       </c>
       <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>23.33</v>
+      </c>
+      <c r="T100">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U100">
+        <v>0.3824590163934426</v>
+      </c>
+      <c r="V100">
         <v>385</v>
       </c>
-      <c r="S100">
+      <c r="W100">
         <v>30</v>
       </c>
     </row>
@@ -7948,9 +9156,21 @@
         <v>40.6</v>
       </c>
       <c r="R101">
+        <v>6</v>
+      </c>
+      <c r="S101">
+        <v>21.92</v>
+      </c>
+      <c r="T101">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U101">
+        <v>0.359344262295082</v>
+      </c>
+      <c r="V101">
         <v>403</v>
       </c>
-      <c r="S101">
+      <c r="W101">
         <v>28</v>
       </c>
     </row>
@@ -8023,9 +9243,21 @@
         <v>50.3</v>
       </c>
       <c r="R102">
+        <v>7</v>
+      </c>
+      <c r="S102">
+        <v>20.92</v>
+      </c>
+      <c r="T102">
+        <v>0.5</v>
+      </c>
+      <c r="U102">
+        <v>0.3429508196721312</v>
+      </c>
+      <c r="V102">
         <v>349</v>
       </c>
-      <c r="S102">
+      <c r="W102">
         <v>35</v>
       </c>
     </row>
@@ -8098,9 +9330,21 @@
         <v>45.5</v>
       </c>
       <c r="R103">
+        <v>7</v>
+      </c>
+      <c r="S103">
+        <v>20.91</v>
+      </c>
+      <c r="T103">
+        <v>0.5</v>
+      </c>
+      <c r="U103">
+        <v>0.3427868852459016</v>
+      </c>
+      <c r="V103">
         <v>410</v>
       </c>
-      <c r="S103">
+      <c r="W103">
         <v>34</v>
       </c>
     </row>
@@ -8173,9 +9417,21 @@
         <v>44.7</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>25.85</v>
+      </c>
+      <c r="T104">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="U104">
+        <v>0.4237704918032787</v>
+      </c>
+      <c r="V104">
         <v>383</v>
       </c>
-      <c r="S104">
+      <c r="W104">
         <v>28</v>
       </c>
     </row>
@@ -8248,9 +9504,21 @@
         <v>58.7</v>
       </c>
       <c r="R105">
+        <v>7</v>
+      </c>
+      <c r="S105">
+        <v>20.1</v>
+      </c>
+      <c r="T105">
+        <v>0.5</v>
+      </c>
+      <c r="U105">
+        <v>0.3295081967213115</v>
+      </c>
+      <c r="V105">
         <v>389</v>
       </c>
-      <c r="S105">
+      <c r="W105">
         <v>27</v>
       </c>
     </row>
@@ -8323,9 +9591,21 @@
         <v>32.5</v>
       </c>
       <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="S106">
+        <v>21.76</v>
+      </c>
+      <c r="T106">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U106">
+        <v>0.3567213114754099</v>
+      </c>
+      <c r="V106">
         <v>372</v>
       </c>
-      <c r="S106">
+      <c r="W106">
         <v>39</v>
       </c>
     </row>
@@ -8398,9 +9678,21 @@
         <v>55.1</v>
       </c>
       <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <v>19.17</v>
+      </c>
+      <c r="T107">
+        <v>0.5</v>
+      </c>
+      <c r="U107">
+        <v>0.3142622950819672</v>
+      </c>
+      <c r="V107">
         <v>463</v>
       </c>
-      <c r="S107">
+      <c r="W107">
         <v>37</v>
       </c>
     </row>
@@ -8473,9 +9765,21 @@
         <v>60.9</v>
       </c>
       <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="S108">
+        <v>21.43</v>
+      </c>
+      <c r="T108">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U108">
+        <v>0.351311475409836</v>
+      </c>
+      <c r="V108">
         <v>378</v>
       </c>
-      <c r="S108">
+      <c r="W108">
         <v>30</v>
       </c>
     </row>
@@ -8548,9 +9852,21 @@
         <v>43</v>
       </c>
       <c r="R109">
+        <v>7</v>
+      </c>
+      <c r="S109">
+        <v>18.08</v>
+      </c>
+      <c r="T109">
+        <v>0.5</v>
+      </c>
+      <c r="U109">
+        <v>0.2963934426229508</v>
+      </c>
+      <c r="V109">
         <v>382</v>
       </c>
-      <c r="S109">
+      <c r="W109">
         <v>30</v>
       </c>
     </row>
@@ -8623,9 +9939,21 @@
         <v>50.8</v>
       </c>
       <c r="R110">
+        <v>7</v>
+      </c>
+      <c r="S110">
+        <v>18.08</v>
+      </c>
+      <c r="T110">
+        <v>0.5</v>
+      </c>
+      <c r="U110">
+        <v>0.2963934426229508</v>
+      </c>
+      <c r="V110">
         <v>426</v>
       </c>
-      <c r="S110">
+      <c r="W110">
         <v>17</v>
       </c>
     </row>
@@ -8698,9 +10026,21 @@
         <v>62.5</v>
       </c>
       <c r="R111">
+        <v>10</v>
+      </c>
+      <c r="S111">
+        <v>14.26</v>
+      </c>
+      <c r="T111">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U111">
+        <v>0.2337704918032787</v>
+      </c>
+      <c r="V111">
         <v>370</v>
       </c>
-      <c r="S111">
+      <c r="W111">
         <v>37</v>
       </c>
     </row>
@@ -8773,9 +10113,21 @@
         <v>62</v>
       </c>
       <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>21.26</v>
+      </c>
+      <c r="T112">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U112">
+        <v>0.3485245901639344</v>
+      </c>
+      <c r="V112">
         <v>378</v>
       </c>
-      <c r="S112">
+      <c r="W112">
         <v>20</v>
       </c>
     </row>
@@ -8848,9 +10200,21 @@
         <v>61</v>
       </c>
       <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>21.17</v>
+      </c>
+      <c r="T113">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U113">
+        <v>0.3470491803278689</v>
+      </c>
+      <c r="V113">
         <v>376</v>
       </c>
-      <c r="S113">
+      <c r="W113">
         <v>10</v>
       </c>
     </row>
@@ -8923,9 +10287,21 @@
         <v>71.3</v>
       </c>
       <c r="R114">
+        <v>10</v>
+      </c>
+      <c r="S114">
+        <v>14.16</v>
+      </c>
+      <c r="T114">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U114">
+        <v>0.2321311475409836</v>
+      </c>
+      <c r="V114">
         <v>462</v>
       </c>
-      <c r="S114">
+      <c r="W114">
         <v>20</v>
       </c>
     </row>
@@ -8998,9 +10374,21 @@
         <v>56.4</v>
       </c>
       <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>19.91</v>
+      </c>
+      <c r="T115">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U115">
+        <v>0.3263934426229508</v>
+      </c>
+      <c r="V115">
         <v>337</v>
       </c>
-      <c r="S115">
+      <c r="W115">
         <v>19</v>
       </c>
     </row>
@@ -9073,9 +10461,21 @@
         <v>64.3</v>
       </c>
       <c r="R116">
+        <v>7</v>
+      </c>
+      <c r="S116">
+        <v>16.66</v>
+      </c>
+      <c r="T116">
+        <v>0.5</v>
+      </c>
+      <c r="U116">
+        <v>0.2731147540983607</v>
+      </c>
+      <c r="V116">
         <v>330</v>
       </c>
-      <c r="S116">
+      <c r="W116">
         <v>32</v>
       </c>
     </row>
@@ -9148,9 +10548,21 @@
         <v>71.59999999999999</v>
       </c>
       <c r="R117">
+        <v>7</v>
+      </c>
+      <c r="S117">
+        <v>14.5</v>
+      </c>
+      <c r="T117">
+        <v>0.5</v>
+      </c>
+      <c r="U117">
+        <v>0.2377049180327869</v>
+      </c>
+      <c r="V117">
         <v>410</v>
       </c>
-      <c r="S117">
+      <c r="W117">
         <v>27</v>
       </c>
     </row>
@@ -9223,9 +10635,21 @@
         <v>43.6</v>
       </c>
       <c r="R118">
+        <v>6</v>
+      </c>
+      <c r="S118">
+        <v>15.42</v>
+      </c>
+      <c r="T118">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U118">
+        <v>0.2527868852459017</v>
+      </c>
+      <c r="V118">
         <v>402</v>
       </c>
-      <c r="S118">
+      <c r="W118">
         <v>45</v>
       </c>
     </row>
@@ -9298,9 +10722,21 @@
         <v>32.8</v>
       </c>
       <c r="R119">
+        <v>8</v>
+      </c>
+      <c r="S119">
+        <v>13.19</v>
+      </c>
+      <c r="T119">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U119">
+        <v>0.2162295081967213</v>
+      </c>
+      <c r="V119">
         <v>391</v>
       </c>
-      <c r="S119">
+      <c r="W119">
         <v>15</v>
       </c>
     </row>
@@ -9373,9 +10809,21 @@
         <v>26.3</v>
       </c>
       <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <v>14.16</v>
+      </c>
+      <c r="T120">
+        <v>0.5</v>
+      </c>
+      <c r="U120">
+        <v>0.2321311475409836</v>
+      </c>
+      <c r="V120">
         <v>389</v>
       </c>
-      <c r="S120">
+      <c r="W120">
         <v>28</v>
       </c>
     </row>
@@ -9448,9 +10896,21 @@
         <v>60.1</v>
       </c>
       <c r="R121">
+        <v>9</v>
+      </c>
+      <c r="S121">
+        <v>11.6</v>
+      </c>
+      <c r="T121">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U121">
+        <v>0.1901639344262295</v>
+      </c>
+      <c r="V121">
         <v>340</v>
       </c>
-      <c r="S121">
+      <c r="W121">
         <v>38</v>
       </c>
     </row>
@@ -9523,9 +10983,21 @@
         <v>77.59999999999999</v>
       </c>
       <c r="R122">
+        <v>6</v>
+      </c>
+      <c r="S122">
+        <v>14.58</v>
+      </c>
+      <c r="T122">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U122">
+        <v>0.2390163934426229</v>
+      </c>
+      <c r="V122">
         <v>339</v>
       </c>
-      <c r="S122">
+      <c r="W122">
         <v>35</v>
       </c>
     </row>
@@ -9598,9 +11070,21 @@
         <v>72.09999999999999</v>
       </c>
       <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>16.76</v>
+      </c>
+      <c r="T123">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U123">
+        <v>0.2747540983606558</v>
+      </c>
+      <c r="V123">
         <v>359</v>
       </c>
-      <c r="S123">
+      <c r="W123">
         <v>39</v>
       </c>
     </row>
@@ -9673,9 +11157,21 @@
         <v>62.7</v>
       </c>
       <c r="R124">
+        <v>5</v>
+      </c>
+      <c r="S124">
+        <v>14.33</v>
+      </c>
+      <c r="T124">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U124">
+        <v>0.2349180327868852</v>
+      </c>
+      <c r="V124">
         <v>360</v>
       </c>
-      <c r="S124">
+      <c r="W124">
         <v>22</v>
       </c>
     </row>
@@ -9748,9 +11244,21 @@
         <v>91.7</v>
       </c>
       <c r="R125">
+        <v>6</v>
+      </c>
+      <c r="S125">
+        <v>12.18</v>
+      </c>
+      <c r="T125">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U125">
+        <v>0.199672131147541</v>
+      </c>
+      <c r="V125">
         <v>368</v>
       </c>
-      <c r="S125">
+      <c r="W125">
         <v>23</v>
       </c>
     </row>
@@ -9823,9 +11331,21 @@
         <v>47.6</v>
       </c>
       <c r="R126">
+        <v>8</v>
+      </c>
+      <c r="S126">
+        <v>8.329999999999998</v>
+      </c>
+      <c r="T126">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U126">
+        <v>0.1365573770491803</v>
+      </c>
+      <c r="V126">
         <v>416</v>
       </c>
-      <c r="S126">
+      <c r="W126">
         <v>50</v>
       </c>
     </row>
@@ -9898,9 +11418,21 @@
         <v>66.7</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>13.83</v>
+      </c>
+      <c r="T127">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="U127">
+        <v>0.2267213114754098</v>
+      </c>
+      <c r="V127">
         <v>356</v>
       </c>
-      <c r="S127">
+      <c r="W127">
         <v>32</v>
       </c>
     </row>
@@ -9973,9 +11505,21 @@
         <v>77.09999999999999</v>
       </c>
       <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>6.33</v>
+      </c>
+      <c r="T128">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U128">
+        <v>0.1037704918032787</v>
+      </c>
+      <c r="V128">
         <v>353</v>
       </c>
-      <c r="S128">
+      <c r="W128">
         <v>27</v>
       </c>
     </row>
@@ -10048,9 +11592,21 @@
         <v>71.40000000000001</v>
       </c>
       <c r="R129">
+        <v>14</v>
+      </c>
+      <c r="S129">
+        <v>41.92</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+      <c r="U129">
+        <v>0.6872131147540984</v>
+      </c>
+      <c r="V129">
         <v>495</v>
       </c>
-      <c r="S129">
+      <c r="W129">
         <v>60</v>
       </c>
     </row>
@@ -10123,9 +11679,21 @@
         <v>74.3</v>
       </c>
       <c r="R130">
+        <v>13</v>
+      </c>
+      <c r="S130">
+        <v>42.92</v>
+      </c>
+      <c r="T130">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U130">
+        <v>0.7036065573770493</v>
+      </c>
+      <c r="V130">
         <v>484</v>
       </c>
-      <c r="S130">
+      <c r="W130">
         <v>60</v>
       </c>
     </row>
@@ -10198,9 +11766,21 @@
         <v>68.40000000000001</v>
       </c>
       <c r="R131">
+        <v>12</v>
+      </c>
+      <c r="S131">
+        <v>40.75</v>
+      </c>
+      <c r="T131">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U131">
+        <v>0.6680327868852459</v>
+      </c>
+      <c r="V131">
         <v>488</v>
       </c>
-      <c r="S131">
+      <c r="W131">
         <v>60</v>
       </c>
     </row>
@@ -10273,9 +11853,21 @@
         <v>79.3</v>
       </c>
       <c r="R132">
+        <v>13</v>
+      </c>
+      <c r="S132">
+        <v>35.42</v>
+      </c>
+      <c r="T132">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U132">
+        <v>0.5806557377049181</v>
+      </c>
+      <c r="V132">
         <v>485</v>
       </c>
-      <c r="S132">
+      <c r="W132">
         <v>60</v>
       </c>
     </row>
@@ -10348,9 +11940,21 @@
         <v>83.59999999999999</v>
       </c>
       <c r="R133">
+        <v>13</v>
+      </c>
+      <c r="S133">
+        <v>34.25</v>
+      </c>
+      <c r="T133">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U133">
+        <v>0.5614754098360656</v>
+      </c>
+      <c r="V133">
         <v>488</v>
       </c>
-      <c r="S133">
+      <c r="W133">
         <v>55</v>
       </c>
     </row>
@@ -10423,9 +12027,21 @@
         <v>61.6</v>
       </c>
       <c r="R134">
+        <v>12</v>
+      </c>
+      <c r="S134">
+        <v>34.33</v>
+      </c>
+      <c r="T134">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U134">
+        <v>0.5627868852459016</v>
+      </c>
+      <c r="V134">
         <v>481</v>
       </c>
-      <c r="S134">
+      <c r="W134">
         <v>60</v>
       </c>
     </row>
@@ -10498,9 +12114,21 @@
         <v>63.7</v>
       </c>
       <c r="R135">
+        <v>12</v>
+      </c>
+      <c r="S135">
+        <v>34.25</v>
+      </c>
+      <c r="T135">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U135">
+        <v>0.5614754098360656</v>
+      </c>
+      <c r="V135">
         <v>481</v>
       </c>
-      <c r="S135">
+      <c r="W135">
         <v>55</v>
       </c>
     </row>
@@ -10573,9 +12201,21 @@
         <v>75.5</v>
       </c>
       <c r="R136">
+        <v>10</v>
+      </c>
+      <c r="S136">
+        <v>36.17</v>
+      </c>
+      <c r="T136">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U136">
+        <v>0.5929508196721312</v>
+      </c>
+      <c r="V136">
         <v>474</v>
       </c>
-      <c r="S136">
+      <c r="W136">
         <v>55</v>
       </c>
     </row>
@@ -10648,9 +12288,21 @@
         <v>69.90000000000001</v>
       </c>
       <c r="R137">
+        <v>9</v>
+      </c>
+      <c r="S137">
+        <v>35.25</v>
+      </c>
+      <c r="T137">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U137">
+        <v>0.5778688524590164</v>
+      </c>
+      <c r="V137">
         <v>435</v>
       </c>
-      <c r="S137">
+      <c r="W137">
         <v>25</v>
       </c>
     </row>
@@ -10723,9 +12375,21 @@
         <v>59.1</v>
       </c>
       <c r="R138">
+        <v>9</v>
+      </c>
+      <c r="S138">
+        <v>35</v>
+      </c>
+      <c r="T138">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U138">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="V138">
         <v>453</v>
       </c>
-      <c r="S138">
+      <c r="W138">
         <v>30</v>
       </c>
     </row>
@@ -10798,9 +12462,21 @@
         <v>60.3</v>
       </c>
       <c r="R139">
+        <v>9</v>
+      </c>
+      <c r="S139">
+        <v>34.08</v>
+      </c>
+      <c r="T139">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U139">
+        <v>0.5586885245901639</v>
+      </c>
+      <c r="V139">
         <v>461</v>
       </c>
-      <c r="S139">
+      <c r="W139">
         <v>55</v>
       </c>
     </row>
@@ -10873,9 +12549,21 @@
         <v>59.3</v>
       </c>
       <c r="R140">
+        <v>11</v>
+      </c>
+      <c r="S140">
+        <v>31.92</v>
+      </c>
+      <c r="T140">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U140">
+        <v>0.5232786885245901</v>
+      </c>
+      <c r="V140">
         <v>464</v>
       </c>
-      <c r="S140">
+      <c r="W140">
         <v>50</v>
       </c>
     </row>
@@ -10948,9 +12636,21 @@
         <v>73.90000000000001</v>
       </c>
       <c r="R141">
+        <v>12</v>
+      </c>
+      <c r="S141">
+        <v>30.75</v>
+      </c>
+      <c r="T141">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U141">
+        <v>0.5040983606557377</v>
+      </c>
+      <c r="V141">
         <v>467</v>
       </c>
-      <c r="S141">
+      <c r="W141">
         <v>50</v>
       </c>
     </row>
@@ -11023,9 +12723,21 @@
         <v>77.8</v>
       </c>
       <c r="R142">
+        <v>13</v>
+      </c>
+      <c r="S142">
+        <v>29.34</v>
+      </c>
+      <c r="T142">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U142">
+        <v>0.4809836065573771</v>
+      </c>
+      <c r="V142">
         <v>433</v>
       </c>
-      <c r="S142">
+      <c r="W142">
         <v>56</v>
       </c>
     </row>
@@ -11098,9 +12810,21 @@
         <v>67.3</v>
       </c>
       <c r="R143">
+        <v>12</v>
+      </c>
+      <c r="S143">
+        <v>29.34</v>
+      </c>
+      <c r="T143">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U143">
+        <v>0.4809836065573771</v>
+      </c>
+      <c r="V143">
         <v>463</v>
       </c>
-      <c r="S143">
+      <c r="W143">
         <v>50</v>
       </c>
     </row>
@@ -11173,9 +12897,21 @@
         <v>77.3</v>
       </c>
       <c r="R144">
+        <v>11</v>
+      </c>
+      <c r="S144">
+        <v>30.16</v>
+      </c>
+      <c r="T144">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U144">
+        <v>0.4944262295081967</v>
+      </c>
+      <c r="V144">
         <v>456</v>
       </c>
-      <c r="S144">
+      <c r="W144">
         <v>50</v>
       </c>
     </row>
@@ -11248,9 +12984,21 @@
         <v>67.40000000000001</v>
       </c>
       <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>35.16</v>
+      </c>
+      <c r="T145">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U145">
+        <v>0.5763934426229508</v>
+      </c>
+      <c r="V145">
         <v>459</v>
       </c>
-      <c r="S145">
+      <c r="W145">
         <v>45</v>
       </c>
     </row>
@@ -11323,9 +13071,21 @@
         <v>66.8</v>
       </c>
       <c r="R146">
+        <v>9</v>
+      </c>
+      <c r="S146">
+        <v>31.83</v>
+      </c>
+      <c r="T146">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U146">
+        <v>0.5218032786885246</v>
+      </c>
+      <c r="V146">
         <v>464</v>
       </c>
-      <c r="S146">
+      <c r="W146">
         <v>50</v>
       </c>
     </row>
@@ -11398,9 +13158,21 @@
         <v>53.4</v>
       </c>
       <c r="R147">
+        <v>9</v>
+      </c>
+      <c r="S147">
+        <v>31.75</v>
+      </c>
+      <c r="T147">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U147">
+        <v>0.5204918032786885</v>
+      </c>
+      <c r="V147">
         <v>414</v>
       </c>
-      <c r="S147">
+      <c r="W147">
         <v>27</v>
       </c>
     </row>
@@ -11473,9 +13245,21 @@
         <v>63.8</v>
       </c>
       <c r="R148">
+        <v>12</v>
+      </c>
+      <c r="S148">
+        <v>27.93</v>
+      </c>
+      <c r="T148">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U148">
+        <v>0.4578688524590164</v>
+      </c>
+      <c r="V148">
         <v>487</v>
       </c>
-      <c r="S148">
+      <c r="W148">
         <v>60</v>
       </c>
     </row>
@@ -11548,9 +13332,21 @@
         <v>57.5</v>
       </c>
       <c r="R149">
+        <v>9</v>
+      </c>
+      <c r="S149">
+        <v>30.75</v>
+      </c>
+      <c r="T149">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U149">
+        <v>0.5040983606557377</v>
+      </c>
+      <c r="V149">
         <v>344</v>
       </c>
-      <c r="S149">
+      <c r="W149">
         <v>40</v>
       </c>
     </row>
@@ -11623,9 +13419,21 @@
         <v>62.8</v>
       </c>
       <c r="R150">
+        <v>8</v>
+      </c>
+      <c r="S150">
+        <v>31.66</v>
+      </c>
+      <c r="T150">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U150">
+        <v>0.5190163934426229</v>
+      </c>
+      <c r="V150">
         <v>420</v>
       </c>
-      <c r="S150">
+      <c r="W150">
         <v>45</v>
       </c>
     </row>
@@ -11698,9 +13506,21 @@
         <v>50.8</v>
       </c>
       <c r="R151">
+        <v>13</v>
+      </c>
+      <c r="S151">
+        <v>26.5</v>
+      </c>
+      <c r="T151">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U151">
+        <v>0.4344262295081967</v>
+      </c>
+      <c r="V151">
         <v>482</v>
       </c>
-      <c r="S151">
+      <c r="W151">
         <v>55</v>
       </c>
     </row>
@@ -11773,9 +13593,21 @@
         <v>57.5</v>
       </c>
       <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>31.67</v>
+      </c>
+      <c r="T152">
+        <v>0.5</v>
+      </c>
+      <c r="U152">
+        <v>0.5191803278688525</v>
+      </c>
+      <c r="V152">
         <v>440</v>
       </c>
-      <c r="S152">
+      <c r="W152">
         <v>25</v>
       </c>
     </row>
@@ -11848,9 +13680,21 @@
         <v>51.6</v>
       </c>
       <c r="R153">
+        <v>13</v>
+      </c>
+      <c r="S153">
+        <v>25.66</v>
+      </c>
+      <c r="T153">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U153">
+        <v>0.420655737704918</v>
+      </c>
+      <c r="V153">
         <v>448</v>
       </c>
-      <c r="S153">
+      <c r="W153">
         <v>50</v>
       </c>
     </row>
@@ -11923,9 +13767,21 @@
         <v>73.7</v>
       </c>
       <c r="R154">
+        <v>10</v>
+      </c>
+      <c r="S154">
+        <v>28.43</v>
+      </c>
+      <c r="T154">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U154">
+        <v>0.4660655737704918</v>
+      </c>
+      <c r="V154">
         <v>473</v>
       </c>
-      <c r="S154">
+      <c r="W154">
         <v>55</v>
       </c>
     </row>
@@ -11998,9 +13854,21 @@
         <v>54.1</v>
       </c>
       <c r="R155">
+        <v>11</v>
+      </c>
+      <c r="S155">
+        <v>27.42</v>
+      </c>
+      <c r="T155">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U155">
+        <v>0.4495081967213115</v>
+      </c>
+      <c r="V155">
         <v>471</v>
       </c>
-      <c r="S155">
+      <c r="W155">
         <v>55</v>
       </c>
     </row>
@@ -12073,9 +13941,21 @@
         <v>57.2</v>
       </c>
       <c r="R156">
+        <v>11</v>
+      </c>
+      <c r="S156">
+        <v>27.27</v>
+      </c>
+      <c r="T156">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U156">
+        <v>0.4470491803278689</v>
+      </c>
+      <c r="V156">
         <v>434</v>
       </c>
-      <c r="S156">
+      <c r="W156">
         <v>60</v>
       </c>
     </row>
@@ -12148,9 +14028,21 @@
         <v>71.40000000000001</v>
       </c>
       <c r="R157">
+        <v>8</v>
+      </c>
+      <c r="S157">
+        <v>29.51</v>
+      </c>
+      <c r="T157">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U157">
+        <v>0.4837704918032786</v>
+      </c>
+      <c r="V157">
         <v>441</v>
       </c>
-      <c r="S157">
+      <c r="W157">
         <v>10</v>
       </c>
     </row>
@@ -12223,9 +14115,21 @@
         <v>60.8</v>
       </c>
       <c r="R158">
+        <v>11</v>
+      </c>
+      <c r="S158">
+        <v>26.1</v>
+      </c>
+      <c r="T158">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U158">
+        <v>0.4278688524590164</v>
+      </c>
+      <c r="V158">
         <v>436</v>
       </c>
-      <c r="S158">
+      <c r="W158">
         <v>50</v>
       </c>
     </row>
@@ -12298,9 +14202,21 @@
         <v>47</v>
       </c>
       <c r="R159">
+        <v>10</v>
+      </c>
+      <c r="S159">
+        <v>26.75</v>
+      </c>
+      <c r="T159">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U159">
+        <v>0.4385245901639344</v>
+      </c>
+      <c r="V159">
         <v>442</v>
       </c>
-      <c r="S159">
+      <c r="W159">
         <v>36</v>
       </c>
     </row>
@@ -12373,9 +14289,21 @@
         <v>64.40000000000001</v>
       </c>
       <c r="R160">
+        <v>9</v>
+      </c>
+      <c r="S160">
+        <v>27.58</v>
+      </c>
+      <c r="T160">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U160">
+        <v>0.4521311475409836</v>
+      </c>
+      <c r="V160">
         <v>430</v>
       </c>
-      <c r="S160">
+      <c r="W160">
         <v>41</v>
       </c>
     </row>
@@ -12448,9 +14376,21 @@
         <v>49.2</v>
       </c>
       <c r="R161">
+        <v>11</v>
+      </c>
+      <c r="S161">
+        <v>25.58</v>
+      </c>
+      <c r="T161">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U161">
+        <v>0.4193442622950819</v>
+      </c>
+      <c r="V161">
         <v>476</v>
       </c>
-      <c r="S161">
+      <c r="W161">
         <v>55</v>
       </c>
     </row>
@@ -12523,9 +14463,21 @@
         <v>71.2</v>
       </c>
       <c r="R162">
+        <v>11</v>
+      </c>
+      <c r="S162">
+        <v>25.5</v>
+      </c>
+      <c r="T162">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U162">
+        <v>0.4180327868852459</v>
+      </c>
+      <c r="V162">
         <v>468</v>
       </c>
-      <c r="S162">
+      <c r="W162">
         <v>52</v>
       </c>
     </row>
@@ -12598,9 +14550,21 @@
         <v>67</v>
       </c>
       <c r="R163">
+        <v>12</v>
+      </c>
+      <c r="S163">
+        <v>24</v>
+      </c>
+      <c r="T163">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U163">
+        <v>0.3934426229508197</v>
+      </c>
+      <c r="V163">
         <v>430</v>
       </c>
-      <c r="S163">
+      <c r="W163">
         <v>60</v>
       </c>
     </row>
@@ -12673,9 +14637,21 @@
         <v>62.2</v>
       </c>
       <c r="R164">
+        <v>9</v>
+      </c>
+      <c r="S164">
+        <v>26.94</v>
+      </c>
+      <c r="T164">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U164">
+        <v>0.4416393442622951</v>
+      </c>
+      <c r="V164">
         <v>441</v>
       </c>
-      <c r="S164">
+      <c r="W164">
         <v>45</v>
       </c>
     </row>
@@ -12748,9 +14724,21 @@
         <v>51.1</v>
       </c>
       <c r="R165">
+        <v>8</v>
+      </c>
+      <c r="S165">
+        <v>26.83</v>
+      </c>
+      <c r="T165">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U165">
+        <v>0.4398360655737705</v>
+      </c>
+      <c r="V165">
         <v>460</v>
       </c>
-      <c r="S165">
+      <c r="W165">
         <v>28</v>
       </c>
     </row>
@@ -12823,9 +14811,21 @@
         <v>47.6</v>
       </c>
       <c r="R166">
+        <v>11</v>
+      </c>
+      <c r="S166">
+        <v>23.33</v>
+      </c>
+      <c r="T166">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U166">
+        <v>0.3824590163934426</v>
+      </c>
+      <c r="V166">
         <v>451</v>
       </c>
-      <c r="S166">
+      <c r="W166">
         <v>60</v>
       </c>
     </row>
@@ -12898,9 +14898,21 @@
         <v>65.40000000000001</v>
       </c>
       <c r="R167">
+        <v>8</v>
+      </c>
+      <c r="S167">
+        <v>26.18</v>
+      </c>
+      <c r="T167">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U167">
+        <v>0.4291803278688525</v>
+      </c>
+      <c r="V167">
         <v>385</v>
       </c>
-      <c r="S167">
+      <c r="W167">
         <v>20</v>
       </c>
     </row>
@@ -12973,9 +14985,21 @@
         <v>68.8</v>
       </c>
       <c r="R168">
+        <v>8</v>
+      </c>
+      <c r="S168">
+        <v>25.68</v>
+      </c>
+      <c r="T168">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U168">
+        <v>0.420983606557377</v>
+      </c>
+      <c r="V168">
         <v>354</v>
       </c>
-      <c r="S168">
+      <c r="W168">
         <v>38</v>
       </c>
     </row>
@@ -13048,9 +15072,21 @@
         <v>68.90000000000001</v>
       </c>
       <c r="R169">
+        <v>11</v>
+      </c>
+      <c r="S169">
+        <v>22.67</v>
+      </c>
+      <c r="T169">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U169">
+        <v>0.3716393442622951</v>
+      </c>
+      <c r="V169">
         <v>470</v>
       </c>
-      <c r="S169">
+      <c r="W169">
         <v>50</v>
       </c>
     </row>
@@ -13123,9 +15159,21 @@
         <v>58.6</v>
       </c>
       <c r="R170">
+        <v>7</v>
+      </c>
+      <c r="S170">
+        <v>26.66</v>
+      </c>
+      <c r="T170">
+        <v>0.5</v>
+      </c>
+      <c r="U170">
+        <v>0.4370491803278688</v>
+      </c>
+      <c r="V170">
         <v>435</v>
       </c>
-      <c r="S170">
+      <c r="W170">
         <v>50</v>
       </c>
     </row>
@@ -13198,9 +15246,21 @@
         <v>49.8</v>
       </c>
       <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>28.83</v>
+      </c>
+      <c r="T171">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U171">
+        <v>0.4726229508196721</v>
+      </c>
+      <c r="V171">
         <v>443</v>
       </c>
-      <c r="S171">
+      <c r="W171">
         <v>55</v>
       </c>
     </row>
@@ -13273,9 +15333,21 @@
         <v>67.7</v>
       </c>
       <c r="R172">
+        <v>6</v>
+      </c>
+      <c r="S172">
+        <v>26.26</v>
+      </c>
+      <c r="T172">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U172">
+        <v>0.4304918032786885</v>
+      </c>
+      <c r="V172">
         <v>348</v>
       </c>
-      <c r="S172">
+      <c r="W172">
         <v>5</v>
       </c>
     </row>
@@ -13348,9 +15420,21 @@
         <v>54.8</v>
       </c>
       <c r="R173">
+        <v>8</v>
+      </c>
+      <c r="S173">
+        <v>24.16</v>
+      </c>
+      <c r="T173">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U173">
+        <v>0.3960655737704917</v>
+      </c>
+      <c r="V173">
         <v>370</v>
       </c>
-      <c r="S173">
+      <c r="W173">
         <v>24</v>
       </c>
     </row>
@@ -13423,9 +15507,21 @@
         <v>65.7</v>
       </c>
       <c r="R174">
+        <v>9</v>
+      </c>
+      <c r="S174">
+        <v>23.01</v>
+      </c>
+      <c r="T174">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U174">
+        <v>0.3772131147540984</v>
+      </c>
+      <c r="V174">
         <v>436</v>
       </c>
-      <c r="S174">
+      <c r="W174">
         <v>40</v>
       </c>
     </row>
@@ -13498,9 +15594,21 @@
         <v>40.6</v>
       </c>
       <c r="R175">
+        <v>13</v>
+      </c>
+      <c r="S175">
+        <v>18.51</v>
+      </c>
+      <c r="T175">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U175">
+        <v>0.3034426229508197</v>
+      </c>
+      <c r="V175">
         <v>454</v>
       </c>
-      <c r="S175">
+      <c r="W175">
         <v>50</v>
       </c>
     </row>
@@ -13573,9 +15681,21 @@
         <v>40.8</v>
       </c>
       <c r="R176">
+        <v>9</v>
+      </c>
+      <c r="S176">
+        <v>21.35</v>
+      </c>
+      <c r="T176">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U176">
+        <v>0.35</v>
+      </c>
+      <c r="V176">
         <v>460</v>
       </c>
-      <c r="S176">
+      <c r="W176">
         <v>60</v>
       </c>
     </row>
@@ -13648,9 +15768,21 @@
         <v>59.7</v>
       </c>
       <c r="R177">
+        <v>7</v>
+      </c>
+      <c r="S177">
+        <v>22.6</v>
+      </c>
+      <c r="T177">
+        <v>0.5</v>
+      </c>
+      <c r="U177">
+        <v>0.3704918032786885</v>
+      </c>
+      <c r="V177">
         <v>402</v>
       </c>
-      <c r="S177">
+      <c r="W177">
         <v>40</v>
       </c>
     </row>
@@ -13723,9 +15855,21 @@
         <v>51.7</v>
       </c>
       <c r="R178">
+        <v>7</v>
+      </c>
+      <c r="S178">
+        <v>22.41</v>
+      </c>
+      <c r="T178">
+        <v>0.5</v>
+      </c>
+      <c r="U178">
+        <v>0.3673770491803279</v>
+      </c>
+      <c r="V178">
         <v>413</v>
       </c>
-      <c r="S178">
+      <c r="W178">
         <v>37</v>
       </c>
     </row>
@@ -13798,9 +15942,21 @@
         <v>75.40000000000001</v>
       </c>
       <c r="R179">
+        <v>7</v>
+      </c>
+      <c r="S179">
+        <v>22.33</v>
+      </c>
+      <c r="T179">
+        <v>0.5</v>
+      </c>
+      <c r="U179">
+        <v>0.3660655737704918</v>
+      </c>
+      <c r="V179">
         <v>439</v>
       </c>
-      <c r="S179">
+      <c r="W179">
         <v>30</v>
       </c>
     </row>
@@ -13873,9 +16029,21 @@
         <v>36.9</v>
       </c>
       <c r="R180">
+        <v>7</v>
+      </c>
+      <c r="S180">
+        <v>22</v>
+      </c>
+      <c r="T180">
+        <v>0.5</v>
+      </c>
+      <c r="U180">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="V180">
         <v>433</v>
       </c>
-      <c r="S180">
+      <c r="W180">
         <v>32</v>
       </c>
     </row>
@@ -13948,9 +16116,21 @@
         <v>59.1</v>
       </c>
       <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>26.91</v>
+      </c>
+      <c r="T181">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="U181">
+        <v>0.4411475409836065</v>
+      </c>
+      <c r="V181">
         <v>371</v>
       </c>
-      <c r="S181">
+      <c r="W181">
         <v>37</v>
       </c>
     </row>
@@ -14023,9 +16203,21 @@
         <v>37.2</v>
       </c>
       <c r="R182">
+        <v>9</v>
+      </c>
+      <c r="S182">
+        <v>19.5</v>
+      </c>
+      <c r="T182">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U182">
+        <v>0.319672131147541</v>
+      </c>
+      <c r="V182">
         <v>492</v>
       </c>
-      <c r="S182">
+      <c r="W182">
         <v>32</v>
       </c>
     </row>
@@ -14098,9 +16290,21 @@
         <v>43.1</v>
       </c>
       <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>23</v>
+      </c>
+      <c r="T183">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U183">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="V183">
         <v>428</v>
       </c>
-      <c r="S183">
+      <c r="W183">
         <v>42</v>
       </c>
     </row>
@@ -14173,9 +16377,21 @@
         <v>35.9</v>
       </c>
       <c r="R184">
+        <v>7</v>
+      </c>
+      <c r="S184">
+        <v>21</v>
+      </c>
+      <c r="T184">
+        <v>0.5</v>
+      </c>
+      <c r="U184">
+        <v>0.3442622950819672</v>
+      </c>
+      <c r="V184">
         <v>456</v>
       </c>
-      <c r="S184">
+      <c r="W184">
         <v>50</v>
       </c>
     </row>
@@ -14248,9 +16464,21 @@
         <v>98.3</v>
       </c>
       <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185">
+        <v>22.93</v>
+      </c>
+      <c r="T185">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="U185">
+        <v>0.3759016393442623</v>
+      </c>
+      <c r="V185">
         <v>393</v>
       </c>
-      <c r="S185">
+      <c r="W185">
         <v>22</v>
       </c>
     </row>
@@ -14323,9 +16551,21 @@
         <v>38.9</v>
       </c>
       <c r="R186">
+        <v>3</v>
+      </c>
+      <c r="S186">
+        <v>23.66</v>
+      </c>
+      <c r="T186">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U186">
+        <v>0.3878688524590164</v>
+      </c>
+      <c r="V186">
         <v>353</v>
       </c>
-      <c r="S186">
+      <c r="W186">
         <v>41</v>
       </c>
     </row>
@@ -14398,9 +16638,21 @@
         <v>48.8</v>
       </c>
       <c r="R187">
+        <v>3</v>
+      </c>
+      <c r="S187">
+        <v>23.6</v>
+      </c>
+      <c r="T187">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U187">
+        <v>0.3868852459016394</v>
+      </c>
+      <c r="V187">
         <v>429</v>
       </c>
-      <c r="S187">
+      <c r="W187">
         <v>29</v>
       </c>
     </row>
@@ -14473,9 +16725,21 @@
         <v>31</v>
       </c>
       <c r="R188">
+        <v>6</v>
+      </c>
+      <c r="S188">
+        <v>19.75</v>
+      </c>
+      <c r="T188">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="U188">
+        <v>0.3237704918032787</v>
+      </c>
+      <c r="V188">
         <v>381</v>
       </c>
-      <c r="S188">
+      <c r="W188">
         <v>38</v>
       </c>
     </row>
@@ -14548,9 +16812,21 @@
         <v>69.5</v>
       </c>
       <c r="R189">
+        <v>8</v>
+      </c>
+      <c r="S189">
+        <v>14.66</v>
+      </c>
+      <c r="T189">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U189">
+        <v>0.240327868852459</v>
+      </c>
+      <c r="V189">
         <v>468</v>
       </c>
-      <c r="S189">
+      <c r="W189">
         <v>60</v>
       </c>
     </row>
